--- a/PythonResources/Data/Consumption/Sympheny/base_1345_ele.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1345_ele.xlsx
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26399,7 +26399,7 @@
         <v>3257</v>
       </c>
       <c r="B3257">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3258" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28111,7 +28111,7 @@
         <v>3471</v>
       </c>
       <c r="B3471">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28447,7 +28447,7 @@
         <v>3513</v>
       </c>
       <c r="B3513">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28487,7 +28487,7 @@
         <v>3518</v>
       </c>
       <c r="B3518">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28519,7 +28519,7 @@
         <v>3522</v>
       </c>
       <c r="B3522">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28871,7 +28871,7 @@
         <v>3566</v>
       </c>
       <c r="B3566">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3567" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28903,7 +28903,7 @@
         <v>3570</v>
       </c>
       <c r="B3570">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29103,7 +29103,7 @@
         <v>3595</v>
       </c>
       <c r="B3595">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29295,7 +29295,7 @@
         <v>3619</v>
       </c>
       <c r="B3619">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29479,7 +29479,7 @@
         <v>3642</v>
       </c>
       <c r="B3642">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29495,7 +29495,7 @@
         <v>3644</v>
       </c>
       <c r="B3644">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29823,7 +29823,7 @@
         <v>3685</v>
       </c>
       <c r="B3685">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30047,7 +30047,7 @@
         <v>3713</v>
       </c>
       <c r="B3713">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3714" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30431,7 +30431,7 @@
         <v>3761</v>
       </c>
       <c r="B3761">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -30439,7 +30439,7 @@
         <v>3762</v>
       </c>
       <c r="B3762">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30991,7 +30991,7 @@
         <v>3831</v>
       </c>
       <c r="B3831">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31007,7 +31007,7 @@
         <v>3833</v>
       </c>
       <c r="B3833">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="3834" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31167,7 +31167,7 @@
         <v>3853</v>
       </c>
       <c r="B3853">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="3854" spans="1:2">
@@ -31175,7 +31175,7 @@
         <v>3854</v>
       </c>
       <c r="B3854">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="3855" spans="1:2">
@@ -31183,7 +31183,7 @@
         <v>3855</v>
       </c>
       <c r="B3855">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="3856" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31543,7 +31543,7 @@
         <v>3900</v>
       </c>
       <c r="B3900">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3901" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31583,7 +31583,7 @@
         <v>3905</v>
       </c>
       <c r="B3905">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -31591,7 +31591,7 @@
         <v>3906</v>
       </c>
       <c r="B3906">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3907" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31767,7 +31767,7 @@
         <v>3928</v>
       </c>
       <c r="B3928">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3929" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31943,7 +31943,7 @@
         <v>3950</v>
       </c>
       <c r="B3950">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -31999,7 +31999,7 @@
         <v>3957</v>
       </c>
       <c r="B3957">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>1.27283</v>
+        <v>2.631281534860898</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>3.26214</v>
+        <v>4.929367279259258</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32167,7 +32167,7 @@
         <v>3978</v>
       </c>
       <c r="B3978">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3979" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>1.56598</v>
+        <v>2.924431534860898</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32295,7 +32295,7 @@
         <v>3994</v>
       </c>
       <c r="B3994">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="3995" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32463,7 +32463,7 @@
         <v>4015</v>
       </c>
       <c r="B4015">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="4016" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32487,7 +32487,7 @@
         <v>4018</v>
       </c>
       <c r="B4018">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="4019" spans="1:2">
@@ -32495,7 +32495,7 @@
         <v>4019</v>
       </c>
       <c r="B4019">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="4020" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>0.402944</v>
+        <v>1.761395534860899</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32703,7 +32703,7 @@
         <v>4045</v>
       </c>
       <c r="B4045">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4046" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32743,7 +32743,7 @@
         <v>4050</v>
       </c>
       <c r="B4050">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4051" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32759,7 +32759,7 @@
         <v>4052</v>
       </c>
       <c r="B4052">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4053" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -32935,7 +32935,7 @@
         <v>4074</v>
       </c>
       <c r="B4074">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4075" spans="1:2">
@@ -32943,7 +32943,7 @@
         <v>4075</v>
       </c>
       <c r="B4075">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4076" spans="1:2">
@@ -32951,7 +32951,7 @@
         <v>4076</v>
       </c>
       <c r="B4076">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4077" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33271,7 +33271,7 @@
         <v>4116</v>
       </c>
       <c r="B4116">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4117" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33319,7 +33319,7 @@
         <v>4122</v>
       </c>
       <c r="B4122">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33487,7 +33487,7 @@
         <v>4143</v>
       </c>
       <c r="B4143">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4144" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33527,7 +33527,7 @@
         <v>4148</v>
       </c>
       <c r="B4148">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4149" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>1.56598</v>
+        <v>2.924431534860898</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33647,7 +33647,7 @@
         <v>4163</v>
       </c>
       <c r="B4163">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4164" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33823,7 +33823,7 @@
         <v>4185</v>
       </c>
       <c r="B4185">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="4186" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>3.90992</v>
+        <v>6.54027537772174</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>2.95391</v>
+        <v>4.518594429548321</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>2.34148</v>
+        <v>5.296251532286321</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>1.64982</v>
+        <v>5.084008433380902</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33863,7 +33863,7 @@
         <v>4190</v>
       </c>
       <c r="B4190">
-        <v>1.25029</v>
+        <v>7.836863202492763</v>
       </c>
     </row>
     <row r="4191" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>0.719344</v>
+        <v>6.14141393229013</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>0.402944</v>
+        <v>1.761395534860899</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33903,7 +33903,7 @@
         <v>4195</v>
       </c>
       <c r="B4195">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4196" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34087,7 +34087,7 @@
         <v>4218</v>
       </c>
       <c r="B4218">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4219" spans="1:2">
@@ -34095,7 +34095,7 @@
         <v>4219</v>
       </c>
       <c r="B4219">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4220" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34215,7 +34215,7 @@
         <v>4234</v>
       </c>
       <c r="B4234">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4235" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34279,7 +34279,7 @@
         <v>4242</v>
       </c>
       <c r="B4242">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4243" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34607,7 +34607,7 @@
         <v>4283</v>
       </c>
       <c r="B4283">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4284" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34655,7 +34655,7 @@
         <v>4289</v>
       </c>
       <c r="B4289">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4290" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34783,7 +34783,7 @@
         <v>4305</v>
       </c>
       <c r="B4305">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4306" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -34799,7 +34799,7 @@
         <v>4307</v>
       </c>
       <c r="B4307">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35151,7 +35151,7 @@
         <v>4351</v>
       </c>
       <c r="B4351">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="4352" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35167,7 +35167,7 @@
         <v>4353</v>
       </c>
       <c r="B4353">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35623,7 +35623,7 @@
         <v>4410</v>
       </c>
       <c r="B4410">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4411" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -35999,7 +35999,7 @@
         <v>4457</v>
       </c>
       <c r="B4457">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36007,7 +36007,7 @@
         <v>4458</v>
       </c>
       <c r="B4458">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4459" spans="1:2">
@@ -36015,7 +36015,7 @@
         <v>4459</v>
       </c>
       <c r="B4459">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36191,7 +36191,7 @@
         <v>4481</v>
       </c>
       <c r="B4481">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36215,7 +36215,7 @@
         <v>4484</v>
       </c>
       <c r="B4484">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>1.56598</v>
+        <v>2.924431534860898</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36327,7 +36327,7 @@
         <v>4498</v>
       </c>
       <c r="B4498">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>1.23777</v>
+        <v>3.302978117354313</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36495,7 +36495,7 @@
         <v>4519</v>
       </c>
       <c r="B4519">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>5.45219</v>
+        <v>10.92944858911932</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>3.90992</v>
+        <v>8.430603470075766</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>2.95391</v>
+        <v>9.642700393387711</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>2.34148</v>
+        <v>10.46164404423419</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>1.64982</v>
+        <v>7.823098676608354</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>1.25029</v>
+        <v>13.47593724888018</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36591,7 +36591,7 @@
         <v>4531</v>
       </c>
       <c r="B4531">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36783,7 +36783,7 @@
         <v>4555</v>
       </c>
       <c r="B4555">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37351,7 +37351,7 @@
         <v>4626</v>
       </c>
       <c r="B4626">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4627" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37543,7 +37543,7 @@
         <v>4650</v>
       </c>
       <c r="B4650">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4651" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37663,7 +37663,7 @@
         <v>4665</v>
       </c>
       <c r="B4665">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="4666" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37743,7 +37743,7 @@
         <v>4675</v>
       </c>
       <c r="B4675">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4676" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37847,7 +37847,7 @@
         <v>4688</v>
       </c>
       <c r="B4688">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37895,7 +37895,7 @@
         <v>4694</v>
       </c>
       <c r="B4694">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="4695" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37911,7 +37911,7 @@
         <v>4696</v>
       </c>
       <c r="B4696">
-        <v>0.402944</v>
+        <v>1.761395534860899</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38095,7 +38095,7 @@
         <v>4719</v>
       </c>
       <c r="B4719">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38127,7 +38127,7 @@
         <v>4723</v>
       </c>
       <c r="B4723">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38311,7 +38311,7 @@
         <v>4746</v>
       </c>
       <c r="B4746">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38335,7 +38335,7 @@
         <v>4749</v>
       </c>
       <c r="B4749">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4750" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38503,7 +38503,7 @@
         <v>4770</v>
       </c>
       <c r="B4770">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4771" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38527,7 +38527,7 @@
         <v>4773</v>
       </c>
       <c r="B4773">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4774" spans="1:2">
@@ -38535,7 +38535,7 @@
         <v>4774</v>
       </c>
       <c r="B4774">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4775" spans="1:2">
@@ -38543,7 +38543,7 @@
         <v>4775</v>
       </c>
       <c r="B4775">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38687,7 +38687,7 @@
         <v>4793</v>
       </c>
       <c r="B4793">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4794" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38703,7 +38703,7 @@
         <v>4795</v>
       </c>
       <c r="B4795">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4796" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>2.58155</v>
+        <v>4.579813157427892</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>1.84786</v>
+        <v>6.321908750663098</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>1.28383</v>
+        <v>5.183110331192959</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>0.718963</v>
+        <v>2.80410200619965</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38895,7 +38895,7 @@
         <v>4819</v>
       </c>
       <c r="B4819">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>1.56598</v>
+        <v>2.924431534860898</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39007,7 +39007,7 @@
         <v>4833</v>
       </c>
       <c r="B4833">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>1.23777</v>
+        <v>3.535836942888653</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>0.47194</v>
+        <v>2.39999959346027</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>0.47194</v>
+        <v>2.405863156403393</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39087,7 +39087,7 @@
         <v>4843</v>
       </c>
       <c r="B4843">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4844" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39111,7 +39111,7 @@
         <v>4846</v>
       </c>
       <c r="B4846">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4847" spans="1:2">
@@ -39119,7 +39119,7 @@
         <v>4847</v>
       </c>
       <c r="B4847">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39127,7 +39127,7 @@
         <v>4848</v>
       </c>
       <c r="B4848">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>5.8084</v>
+        <v>11.20587175131057</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>6.13104</v>
+        <v>18.31159859752572</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>5.45219</v>
+        <v>34.72916273407108</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39207,7 +39207,7 @@
         <v>4858</v>
       </c>
       <c r="B4858">
-        <v>3.90992</v>
+        <v>28.74576956239704</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>2.95391</v>
+        <v>20.5729392568795</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>2.34148</v>
+        <v>21.83629109434824</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>1.64982</v>
+        <v>12.62651782267826</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>1.25029</v>
+        <v>5.198026013044769</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>0.719344</v>
+        <v>3.92754958404492</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>0.402944</v>
+        <v>1.761395534860899</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39287,7 +39287,7 @@
         <v>4868</v>
       </c>
       <c r="B4868">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="4869" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>1.27283</v>
+        <v>2.631281534860898</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>3.04158</v>
+        <v>5.036233638129439</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>2.58155</v>
+        <v>5.848083394057918</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>1.84786</v>
+        <v>8.471165668398616</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>1.28383</v>
+        <v>4.789350127732906</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>0.718963</v>
+        <v>2.21236248836064</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>0.372506</v>
+        <v>1.877948224492433</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>0.28008</v>
+        <v>2.558594250131629</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39463,7 +39463,7 @@
         <v>4890</v>
       </c>
       <c r="B4890">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39503,7 +39503,7 @@
         <v>4895</v>
       </c>
       <c r="B4895">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4896" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39679,7 +39679,7 @@
         <v>4917</v>
       </c>
       <c r="B4917">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4918" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39839,7 +39839,7 @@
         <v>4937</v>
       </c>
       <c r="B4937">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4938" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40031,7 +40031,7 @@
         <v>4961</v>
       </c>
       <c r="B4961">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40527,7 +40527,7 @@
         <v>5023</v>
       </c>
       <c r="B5023">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -40983,7 +40983,7 @@
         <v>5080</v>
       </c>
       <c r="B5080">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5081" spans="1:2">
@@ -40991,7 +40991,7 @@
         <v>5081</v>
       </c>
       <c r="B5081">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -40999,7 +40999,7 @@
         <v>5082</v>
       </c>
       <c r="B5082">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5083" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41175,7 +41175,7 @@
         <v>5104</v>
       </c>
       <c r="B5104">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5105" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41191,7 +41191,7 @@
         <v>5106</v>
       </c>
       <c r="B5106">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5107" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41375,7 +41375,7 @@
         <v>5129</v>
       </c>
       <c r="B5129">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5130" spans="1:2">
@@ -41383,7 +41383,7 @@
         <v>5130</v>
       </c>
       <c r="B5130">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5131" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41575,7 +41575,7 @@
         <v>5154</v>
       </c>
       <c r="B5154">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5155" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>1.76656</v>
+        <v>3.125011534860898</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41711,7 +41711,7 @@
         <v>5171</v>
       </c>
       <c r="B5171">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5172" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41727,7 +41727,7 @@
         <v>5173</v>
       </c>
       <c r="B5173">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5174" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41743,7 +41743,7 @@
         <v>5175</v>
       </c>
       <c r="B5175">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5176" spans="1:2">
@@ -41751,7 +41751,7 @@
         <v>5176</v>
       </c>
       <c r="B5176">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5177" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -41783,7 +41783,7 @@
         <v>5180</v>
       </c>
       <c r="B5180">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5181" spans="1:2">
@@ -41791,7 +41791,7 @@
         <v>5181</v>
       </c>
       <c r="B5181">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5182" spans="1:2">
@@ -41799,7 +41799,7 @@
         <v>5182</v>
       </c>
       <c r="B5182">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5183" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41871,7 +41871,7 @@
         <v>5191</v>
       </c>
       <c r="B5191">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="5192" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42535,7 +42535,7 @@
         <v>5274</v>
       </c>
       <c r="B5274">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5275" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42711,7 +42711,7 @@
         <v>5296</v>
       </c>
       <c r="B5296">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5297" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42727,7 +42727,7 @@
         <v>5298</v>
       </c>
       <c r="B5298">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5299" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -42871,7 +42871,7 @@
         <v>5316</v>
       </c>
       <c r="B5316">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5317" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43071,7 +43071,7 @@
         <v>5341</v>
       </c>
       <c r="B5341">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5342" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43207,7 +43207,7 @@
         <v>5358</v>
       </c>
       <c r="B5358">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="5359" spans="1:2">
@@ -43215,7 +43215,7 @@
         <v>5359</v>
       </c>
       <c r="B5359">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="5360" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>2.34148</v>
+        <v>3.806437045232357</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>1.64982</v>
+        <v>4.224843457376345</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>1.25029</v>
+        <v>13.5698797779103</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43279,7 +43279,7 @@
         <v>5367</v>
       </c>
       <c r="B5367">
-        <v>0.719344</v>
+        <v>4.052323989386992</v>
       </c>
     </row>
     <row r="5368" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43463,7 +43463,7 @@
         <v>5390</v>
       </c>
       <c r="B5390">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5391" spans="1:2">
@@ -43471,7 +43471,7 @@
         <v>5391</v>
       </c>
       <c r="B5391">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5392" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43495,7 +43495,7 @@
         <v>5394</v>
       </c>
       <c r="B5394">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5395" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>1.64837</v>
+        <v>3.006821534860898</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43687,7 +43687,7 @@
         <v>5418</v>
       </c>
       <c r="B5418">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5419" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44423,7 +44423,7 @@
         <v>5510</v>
       </c>
       <c r="B5510">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5511" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44447,7 +44447,7 @@
         <v>5513</v>
       </c>
       <c r="B5513">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5514" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44599,7 +44599,7 @@
         <v>5532</v>
       </c>
       <c r="B5532">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="5533" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45007,7 +45007,7 @@
         <v>5583</v>
       </c>
       <c r="B5583">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5584" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45415,7 +45415,7 @@
         <v>5634</v>
       </c>
       <c r="B5634">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5635" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45583,7 +45583,7 @@
         <v>5655</v>
       </c>
       <c r="B5655">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5656" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45775,7 +45775,7 @@
         <v>5679</v>
       </c>
       <c r="B5679">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5680" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45799,7 +45799,7 @@
         <v>5682</v>
       </c>
       <c r="B5682">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5683" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45935,7 +45935,7 @@
         <v>5699</v>
       </c>
       <c r="B5699">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="5700" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>1.25029</v>
+        <v>3.410959480442723</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -45975,7 +45975,7 @@
         <v>5704</v>
       </c>
       <c r="B5704">
-        <v>0.402944</v>
+        <v>1.761395534860899</v>
       </c>
     </row>
     <row r="5705" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46183,7 +46183,7 @@
         <v>5730</v>
       </c>
       <c r="B5730">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5731" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46343,7 +46343,7 @@
         <v>5750</v>
       </c>
       <c r="B5750">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5751" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46359,7 +46359,7 @@
         <v>5752</v>
       </c>
       <c r="B5752">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5753" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46375,7 +46375,7 @@
         <v>5754</v>
       </c>
       <c r="B5754">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5755" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>2.59539</v>
+        <v>3.953841534860898</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46743,7 +46743,7 @@
         <v>5800</v>
       </c>
       <c r="B5800">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5801" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46919,7 +46919,7 @@
         <v>5822</v>
       </c>
       <c r="B5822">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5823" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -47151,7 +47151,7 @@
         <v>5851</v>
       </c>
       <c r="B5851">
-        <v>0.107259</v>
+        <v>1.465710534860898</v>
       </c>
     </row>
     <row r="5852" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>4.87286</v>
+        <v>6.231311534860899</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47247,7 +47247,7 @@
         <v>5863</v>
       </c>
       <c r="B5863">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="5864" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47271,7 +47271,7 @@
         <v>5866</v>
       </c>
       <c r="B5866">
-        <v>3.90992</v>
+        <v>6.47911538350629</v>
       </c>
     </row>
     <row r="5867" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>2.95391</v>
+        <v>7.492761565273435</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>1.64982</v>
+        <v>5.362566230995821</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>1.25029</v>
+        <v>5.059387488648852</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>0.719344</v>
+        <v>4.909029101015845</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -47903,7 +47903,7 @@
         <v>5945</v>
       </c>
       <c r="B5945">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5946" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48287,7 +48287,7 @@
         <v>5993</v>
       </c>
       <c r="B5993">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="5994" spans="1:2">
@@ -48295,7 +48295,7 @@
         <v>5994</v>
       </c>
       <c r="B5994">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="5995" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>1.93066</v>
+        <v>3.289111534860898</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>5.8084</v>
+        <v>7.166851534860898</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48615,7 +48615,7 @@
         <v>6034</v>
       </c>
       <c r="B6034">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="6035" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49055,7 +49055,7 @@
         <v>6089</v>
       </c>
       <c r="B6089">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6090" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>0.344302</v>
+        <v>1.702753534860898</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>6.13104</v>
+        <v>7.489491534860898</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -49983,7 +49983,7 @@
         <v>6205</v>
       </c>
       <c r="B6205">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="6206" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>0.35753</v>
+        <v>1.715981534860898</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50791,7 +50791,7 @@
         <v>6306</v>
       </c>
       <c r="B6306">
-        <v>0.204935</v>
+        <v>1.563386534860898</v>
       </c>
     </row>
     <row r="6307" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51327,7 +51327,7 @@
         <v>6373</v>
       </c>
       <c r="B6373">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="6374" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>5.45219</v>
+        <v>6.810641534860898</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>3.90992</v>
+        <v>5.268371534860899</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52663,7 +52663,7 @@
         <v>6540</v>
       </c>
       <c r="B6540">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="6541" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>0.28008</v>
+        <v>1.638531534860898</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>1.23777</v>
+        <v>2.596221534860899</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>0.47194</v>
+        <v>1.830391534860898</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55359,7 +55359,7 @@
         <v>6877</v>
       </c>
       <c r="B6877">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="6878" spans="1:2">
@@ -55367,7 +55367,7 @@
         <v>6878</v>
       </c>
       <c r="B6878">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="6879" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -56687,7 +56687,7 @@
         <v>7043</v>
       </c>
       <c r="B7043">
-        <v>2.95391</v>
+        <v>4.312361534860898</v>
       </c>
     </row>
     <row r="7044" spans="1:2">
@@ -56695,7 +56695,7 @@
         <v>7044</v>
       </c>
       <c r="B7044">
-        <v>2.34148</v>
+        <v>3.699931534860898</v>
       </c>
     </row>
     <row r="7045" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>1.64982</v>
+        <v>3.008271534860898</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>1.25029</v>
+        <v>2.608741534860898</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>0.719344</v>
+        <v>2.077795534860898</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>3.26214</v>
+        <v>4.620591534860898</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>3.04158</v>
+        <v>4.400031534860899</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>2.58155</v>
+        <v>3.940001534860897</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>1.84786</v>
+        <v>3.206311534860898</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>1.28383</v>
+        <v>2.642281534860898</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>0.718963</v>
+        <v>2.077414534860898</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>0.372506</v>
+        <v>1.730957534860898</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
